--- a/Companies/Bank - Private/Kotak Mahindra Bank Ltd/Pruned_Excel/9_Sep23_Sep24.xlsx
+++ b/Companies/Bank - Private/Kotak Mahindra Bank Ltd/Pruned_Excel/9_Sep23_Sep24.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,15 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="54" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
     <col width="10" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
-    <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="9" customWidth="1" min="9" max="9"/>
-    <col width="20" customWidth="1" min="10" max="10"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Sep '23</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Dec '23</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Mar '24</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Jun '24</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Sep '24</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '24</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '24</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '23</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '23</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -512,37 +489,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>8,676.30</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>9,209.87</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9,473.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>9,779.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>10,132.72</t>
         </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>9,779.27</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>9,473.58</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>9,209.87</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8,676.30</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>10132.72</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>8676.299999999999</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>9454.348</v>
       </c>
     </row>
     <row r="5">
@@ -553,37 +521,28 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2,148.47</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2,275.79</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2,466.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2,592.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>2,771.91</t>
         </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2,592.18</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2,466.42</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2,275.79</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2,148.47</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>2771.91</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>2148.47</v>
-      </c>
-      <c r="J5" s="2" t="n">
-        <v>2450.954</v>
       </c>
     </row>
     <row r="6">
@@ -594,37 +553,28 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>273.55</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>239.88</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>160.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>271.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>224.47</t>
         </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>271.80</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>160.13</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>239.88</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>273.55</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>273.55</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>160.13</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>233.966</v>
       </c>
     </row>
     <row r="7">
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>73.48</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>206.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>102.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>87.17</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>102.86</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>206.93</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>73.48</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>206.93</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>73.48</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>112.99</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2,314.53</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2,297.02</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2,978.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2,929.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>2,684.19</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2,929.04</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2,978.29</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2,297.02</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2,314.53</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>2978.29</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>2297.02</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>2640.614</v>
       </c>
     </row>
     <row r="9"/>
@@ -725,37 +657,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>4,896.19</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>5,245.50</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5,397.71</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>5,903.76</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>6,196.66</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>5,903.76</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>5,397.71</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>5,245.50</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4,896.19</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>6196.66</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>4896.19</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>5527.964</v>
       </c>
     </row>
     <row r="12">
@@ -766,37 +689,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>1,634.61</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1,748.34</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1,826.42</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1,870.50</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>1,951.39</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1,870.50</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1,826.42</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1,748.34</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1,634.61</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>1951.39</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>1634.61</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>1806.252</v>
       </c>
     </row>
     <row r="13">
@@ -807,37 +721,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>2,366.45</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2,535.99</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2,599.66</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2,646.78</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>2,653.16</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>2,646.78</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2,599.66</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2,535.99</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2,366.45</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>2653.16</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>2366.45</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>2560.408</v>
       </c>
     </row>
     <row r="14">
@@ -848,37 +753,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>4,610.11</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>4,566.21</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5,461.56</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>5,254.11</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>5,099.25</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>5,254.11</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>5,461.56</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>4,566.21</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4,610.11</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>5461.56</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>4566.21</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>4998.248</v>
       </c>
     </row>
     <row r="15">
@@ -889,37 +785,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>366.55</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>579.14</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>263.73</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>578.48</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>660.39</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>578.48</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>263.73</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>579.14</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>366.55</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>660.39</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>263.73</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>489.658</v>
       </c>
     </row>
     <row r="16">
@@ -935,32 +822,23 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>3,519.90</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>--</t>
         </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>3519.9</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>3519.9</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>3519.9</v>
       </c>
     </row>
     <row r="17">
@@ -971,37 +849,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>4,243.56</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>3,987.07</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5,197.83</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>8,195.53</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>4,438.86</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>8,195.53</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>5,197.83</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>3,987.07</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4,243.56</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>8195.530000000001</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>3987.07</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>5212.570000000001</v>
       </c>
     </row>
     <row r="18">
@@ -1012,37 +881,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>1,052.59</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>982.06</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1,064.53</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1,945.71</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>1,095.14</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1,945.71</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1,064.53</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>982.06</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1,052.59</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>1945.71</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>982.0599999999999</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>1228.006</v>
       </c>
     </row>
     <row r="19">
@@ -1053,37 +913,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>3,190.97</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>3,005.01</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4,133.30</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>6,249.82</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>3,343.72</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>6,249.82</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>4,133.30</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>3,005.01</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3,190.97</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>6249.82</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>3005.01</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>3984.564</v>
       </c>
     </row>
     <row r="20">
@@ -1094,37 +945,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>3,190.97</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>3,005.01</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4,133.30</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>6,249.82</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>3,343.72</t>
         </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>6,249.82</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>4,133.30</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>3,005.01</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3,190.97</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>6249.82</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>3005.01</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>3984.564</v>
       </c>
     </row>
     <row r="21">
@@ -1135,37 +977,28 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>993.75</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>993.83</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>993.96</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>993.98</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>994.06</t>
         </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>993.98</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>993.96</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>993.83</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>993.75</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>994.0599999999999</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>993.75</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>993.9159999999999</v>
       </c>
     </row>
     <row r="22"/>
@@ -1192,37 +1025,28 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>16.06</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>15.12</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>20.60</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>31.44</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>16.82</t>
         </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>31.44</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>20.60</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>15.12</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>16.06</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>31.44</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>15.12</v>
-      </c>
-      <c r="J26" s="2" t="n">
-        <v>20.008</v>
       </c>
     </row>
     <row r="27">
@@ -1233,37 +1057,28 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>16.05</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>15.12</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>20.60</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>31.44</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>16.82</t>
         </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>31.44</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>20.60</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>15.12</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>16.05</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="n">
-        <v>31.44</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>15.12</v>
-      </c>
-      <c r="J27" s="2" t="n">
-        <v>20.006</v>
       </c>
     </row>
     <row r="28"/>
@@ -1282,37 +1097,28 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>16.06</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>15.12</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>20.60</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>31.44</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>16.82</t>
         </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>31.44</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>20.60</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>15.12</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>16.06</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>31.44</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>15.12</v>
-      </c>
-      <c r="J30" s="2" t="n">
-        <v>20.008</v>
       </c>
     </row>
     <row r="31">
@@ -1323,37 +1129,28 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>16.05</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>15.12</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>20.60</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>31.44</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
           <t>16.82</t>
         </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>31.44</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>20.60</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>15.12</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>16.05</t>
-        </is>
-      </c>
-      <c r="H31" s="2" t="n">
-        <v>31.44</v>
-      </c>
-      <c r="I31" s="2" t="n">
-        <v>15.12</v>
-      </c>
-      <c r="J31" s="2" t="n">
-        <v>20.006</v>
       </c>
     </row>
     <row r="32"/>
@@ -1372,37 +1169,28 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>6,087.23</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>6,301.67</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5,274.78</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>5,477.15</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
           <t>6,033.17</t>
         </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>5,477.15</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>5,274.78</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>6,301.67</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>6,087.23</t>
-        </is>
-      </c>
-      <c r="H34" s="2" t="n">
-        <v>6301.67</v>
-      </c>
-      <c r="I34" s="2" t="n">
-        <v>5274.78</v>
-      </c>
-      <c r="J34" s="2" t="n">
-        <v>5834.8</v>
       </c>
     </row>
     <row r="35">
@@ -1413,37 +1201,28 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>1,274.81</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1,225.26</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1,270.57</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>1,376.33</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
           <t>1,723.83</t>
         </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>1,376.33</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>1,270.57</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>1,225.26</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>1,274.81</t>
-        </is>
-      </c>
-      <c r="H35" s="2" t="n">
-        <v>1723.83</v>
-      </c>
-      <c r="I35" s="2" t="n">
-        <v>1225.26</v>
-      </c>
-      <c r="J35" s="2" t="n">
-        <v>1374.16</v>
       </c>
     </row>
     <row r="36">
@@ -1454,37 +1233,28 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
           <t>1.49</t>
         </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="H36" s="2" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="I36" s="2" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="J36" s="2" t="n">
-        <v>1.544</v>
       </c>
     </row>
     <row r="37">
@@ -1495,37 +1265,28 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
           <t>0.43</t>
         </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="H37" s="2" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="I37" s="2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="J37" s="2" t="n">
-        <v>0.366</v>
       </c>
     </row>
     <row r="38">
@@ -1536,37 +1297,28 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
         <is>
           <t>1.05</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="H38" s="2" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="I38" s="2" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="J38" s="2" t="n">
-        <v>0.7020000000000001</v>
       </c>
     </row>
     <row r="39"/>
@@ -1609,37 +1361,28 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
+          <t>202309</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>202312</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>202403</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>202406</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
           <t>202409</t>
         </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>202406</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>202403</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>202312</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>202309</t>
-        </is>
-      </c>
-      <c r="H47" s="2" t="n">
-        <v>202409</v>
-      </c>
-      <c r="I47" s="2" t="n">
-        <v>202309</v>
-      </c>
-      <c r="J47" s="2" t="n">
-        <v>202367.8</v>
       </c>
     </row>
   </sheetData>
